--- a/export/Compare_Export.xlsx
+++ b/export/Compare_Export.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C584"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,46 +459,7 @@
       </c>
     </row>
     <row r="2" ht="140" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>{
-    //"promotionVersion": "1.0.49",
-    "cid": "POS",
-    "mode": "cancel",
-    // "isPreSubmitMode": true,
-    //"isSafeSubmitMode": false,
-    "member_id": "010190655388",
-    "storeid": "{{storeid}}",
-    "posid": 3,
-    "inv": {{random_inv}},
-    "saledate": "2025-06-19 11:44:03",
-    "orderNumber": "",
-    "orderId": "",
-    "products": [
-        {
-            "name": "ดับเบิ้ลครัวซองค์ไส้กรอกช",
-            "code": "0100001",
-            "price": 27,
-            "pma": "01",
-            "cat": "02",
-            "subcat": "02",
-            "quantity": 6,
-            "isApply": true
-        }
-    ],
-    "coupon": [],
-    "tender": [],
-    "localSegments": [],
-    "redeems": [],
-    "mstamp": false,
-    "isApplyAccum": true,
-    "confirmApplyAccumQty": [{
-        "proNumber": "2850",
-        "eligibleQty": 1
-    }]
-}</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>{
@@ -4704,14 +4665,14 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              "Nodata"</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4684,7 @@
       </c>
       <c r="C182" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
@@ -4735,103 +4696,103 @@
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+          <t>Nodata</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
+          <t xml:space="preserve">            ],</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": 2700,</t>
+          <t xml:space="preserve">                "itemSeq": "1.6",</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": 2700,</t>
+          <t xml:space="preserve">                "price": 2700,</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="B187" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "amount": 2700,</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "rewardAmount": 2</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": "Nodata"</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="B188" s="2" t="inlineStr">
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">              }</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" s="2" t="inlineStr">
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">            ],</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ],</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "triggerItems": [</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "triggerItems": [</t>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "triggerItems": [</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "triggerItems": [</t>
         </is>
       </c>
     </row>
@@ -4874,292 +4835,300 @@
     <row r="195">
       <c r="B195" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="B196" s="3" t="inlineStr">
+    <row r="197">
+      <c r="B197" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">                "amount": 2700</t>
         </is>
       </c>
-      <c r="C196" s="3" t="inlineStr">
+      <c r="C197" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">                "amount": 1200</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "0100001",</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
+          <t xml:space="preserve">              "Nodata"</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "1",</t>
+          <t xml:space="preserve">                "pluCode": "0100001",</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+          <t xml:space="preserve">                "depCode": "1",</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": 1,</t>
+          <t>Nodata</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": "Nodata",</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": 2700,</t>
+          <t>Nodata</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+          <t xml:space="preserve">          }</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="B204" s="3" t="inlineStr">
         <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      }</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "quantityType": 1,</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "price": 2700,</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "amount": 2700</t>
         </is>
       </c>
-      <c r="C204" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": "Nodata"</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          }</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          }</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ]</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      }</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      }</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "itemSpendPromotion": 0,</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "itemSpendPromotion": 1,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "memberCardRequired": false,</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "memberCardRequired": true,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "promoNumber": "10734"</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "promoNumber": "10734"</t>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="B216" s="2" t="inlineStr"/>
-      <c r="C216" s="2" t="inlineStr"/>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      }</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
     </row>
     <row r="217">
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>promoNumber: 10974</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>promoNumber: 10974</t>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>{</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>{</t>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
+          <t xml:space="preserve">  "itemSpendPromotion": 0,</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+          <t xml:space="preserve">  "itemSpendPromotion": 1,</t>
         </is>
       </c>
     </row>
@@ -5176,170 +5145,162 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "10734"</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "10734"</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
+      <c r="B223" s="2" t="inlineStr"/>
+      <c r="C223" s="2" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 10974</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 10974</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
-      <c r="C226" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": false,</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": true,</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="B229" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
@@ -5358,704 +5319,704 @@
     <row r="236">
       <c r="B236" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C236" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="B243" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "10974"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "10974"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="B246" s="2" t="inlineStr"/>
-      <c r="C246" s="2" t="inlineStr"/>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11146</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11146</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="B249" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C249" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="B250" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": false,</t>
-        </is>
-      </c>
-      <c r="C250" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": true,</t>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "10974"</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "10974"</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
+      <c r="B253" s="2" t="inlineStr"/>
+      <c r="C253" s="2" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11146</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11146</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": false,</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": true,</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="B259" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C259" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="B262" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C262" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "redemption": [</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="B268" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 2</t>
-        </is>
-      </c>
-      <c r="C268" s="3" t="inlineStr">
+    <row r="269">
+      <c r="B269" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
-    </row>
-    <row r="269">
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="B275" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C275" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 2</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11146"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11146"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="B278" s="2" t="inlineStr"/>
-      <c r="C278" s="2" t="inlineStr"/>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11597</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11597</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="B281" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C281" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="B282" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C282" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  "promoNumber": "11146"</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  "promoNumber": "11146"</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="B285" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
-        </is>
-      </c>
-      <c r="C285" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
-        </is>
-      </c>
+      <c r="B285" s="2" t="inlineStr"/>
+      <c r="C285" s="2" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>promoNumber: 11597</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>promoNumber: 11597</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="B288" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
-        </is>
-      </c>
-      <c r="C288" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+      <c r="B288" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C288" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="B289" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C289" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C289" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="B290" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C290" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
@@ -6074,340 +6035,340 @@
     <row r="297">
       <c r="B297" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C297" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C297" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="B304" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C304" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B304" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C304" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11597"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11597"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="B307" s="2" t="inlineStr"/>
-      <c r="C307" s="2" t="inlineStr"/>
+      <c r="B307" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C307" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11599</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11599</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="B310" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C310" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="B311" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": false,</t>
-        </is>
-      </c>
-      <c r="C311" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": true,</t>
+      <c r="B311" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="B312" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C312" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11597"</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11597"</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="B314" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C314" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
+      <c r="B314" s="2" t="inlineStr"/>
+      <c r="C314" s="2" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11599</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11599</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="B317" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
-      <c r="C317" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
+      <c r="B317" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C317" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="B318" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
-        </is>
-      </c>
-      <c r="C318" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+      <c r="B318" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": false,</t>
+        </is>
+      </c>
+      <c r="C318" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": true,</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="B319" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C319" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B319" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="B320" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C320" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
@@ -6426,340 +6387,340 @@
     <row r="327">
       <c r="B327" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C327" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="B334" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C334" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B334" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C334" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11599"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11599"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="B337" s="2" t="inlineStr"/>
-      <c r="C337" s="2" t="inlineStr"/>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11601</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11601</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="B340" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C340" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="B341" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": false,</t>
-        </is>
-      </c>
-      <c r="C341" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": true,</t>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="B342" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C342" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11599"</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11599"</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="B344" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C344" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
+      <c r="B344" s="2" t="inlineStr"/>
+      <c r="C344" s="2" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11601</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>promoNumber: 11601</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
+      <c r="B347" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C347" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="B348" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
-        </is>
-      </c>
-      <c r="C348" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+      <c r="B348" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": false,</t>
+        </is>
+      </c>
+      <c r="C348" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "memberCardRequired": true,</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="B349" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C349" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B349" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C349" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="B350" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C350" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
@@ -6778,316 +6739,316 @@
     <row r="357">
       <c r="B357" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C357" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C357" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C359" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="B364" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C364" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B364" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C364" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11601"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11601"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C366" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="B367" s="2" t="inlineStr"/>
-      <c r="C367" s="2" t="inlineStr"/>
+      <c r="B367" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C367" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11640</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C368" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11640</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C369" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="B370" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C370" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
       <c r="C371" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="B372" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">  "promoNumber": "11601"</t>
         </is>
       </c>
       <c r="C372" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">  "promoNumber": "11601"</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="B373" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C373" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="B374" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        "redemption": [</t>
-        </is>
-      </c>
-      <c r="C374" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        "redemption": [</t>
-        </is>
-      </c>
+      <c r="B374" s="2" t="inlineStr"/>
+      <c r="C374" s="2" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="B375" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>promoNumber: 11640</t>
         </is>
       </c>
       <c r="C375" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>promoNumber: 11640</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="B376" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C376" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="B377" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C377" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B377" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C377" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="378">
-      <c r="B378" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C378" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+      <c r="B378" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="B379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="B381" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C381" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="382">
-      <c r="B382" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": 2700</t>
-        </is>
-      </c>
-      <c r="C382" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": 1900</t>
+      <c r="B382" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          {</t>
+        </is>
+      </c>
+      <c r="C382" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="B383" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
       <c r="C383" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              },</t>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
@@ -7106,12 +7067,12 @@
     <row r="385">
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.4"</t>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6"</t>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
         </is>
       </c>
     </row>
@@ -7130,2044 +7091,2044 @@
     <row r="387">
       <c r="B387" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+      <c r="C387" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="B388" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "pluCode": "0100001",</t>
-        </is>
-      </c>
-      <c r="C388" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "1",</t>
+          <t xml:space="preserve">                "amount": 2700</t>
         </is>
       </c>
       <c r="C389" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
+          <t xml:space="preserve">                "amount": 1900</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="B390" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "itemSeq": "1.5",</t>
-        </is>
-      </c>
-      <c r="C390" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
+      <c r="B390" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C390" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="391">
-      <c r="B391" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "price": 2700,</t>
-        </is>
-      </c>
-      <c r="C391" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+      <c r="B391" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
+        </is>
+      </c>
+      <c r="C391" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": 2700,</t>
+          <t xml:space="preserve">                "itemSeq": "1.4"</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": "Nodata",</t>
+          <t xml:space="preserve">                "itemSeq": "1.6"</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="B393" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
-        </is>
-      </c>
-      <c r="C393" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": "Nodata"</t>
+      <c r="B393" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C393" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="B394" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C394" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B394" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
+        </is>
+      </c>
+      <c r="C394" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="B395" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C395" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B395" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "pluCode": "0100001",</t>
+        </is>
+      </c>
+      <c r="C395" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "0100001",</t>
+          <t xml:space="preserve">                "depCode": "1",</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "1",</t>
+          <t>Nodata</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
+          <t xml:space="preserve">              "Nodata"</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+          <t>Nodata</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
+          <t xml:space="preserve">            ],</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": 2700,</t>
+          <t xml:space="preserve">                "itemSeq": "1.5",</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": 2700,</t>
+          <t xml:space="preserve">                "price": 2700,</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+          <t xml:space="preserve">                "amount": 2700,</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": "Nodata"</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="402">
-      <c r="B402" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-      <c r="C402" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
+      <c r="B402" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C402" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="403">
-      <c r="B403" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ],</t>
-        </is>
-      </c>
-      <c r="C403" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ],</t>
+      <c r="B403" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C403" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="404">
-      <c r="B404" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "triggerItems": [</t>
-        </is>
-      </c>
-      <c r="C404" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "triggerItems": [</t>
+      <c r="B404" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
+        </is>
+      </c>
+      <c r="C404" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="405">
-      <c r="B405" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
-        </is>
-      </c>
-      <c r="C405" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
+      <c r="B405" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "pluCode": "0100001",</t>
+        </is>
+      </c>
+      <c r="C405" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="406">
-      <c r="B406" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
-        </is>
-      </c>
-      <c r="C406" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {},</t>
+      <c r="B406" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "depCode": "1",</t>
+        </is>
+      </c>
+      <c r="C406" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="407">
-      <c r="B407" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C407" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B407" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+        </is>
+      </c>
+      <c r="C407" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="B408" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": 2700</t>
+          <t xml:space="preserve">                "price": 2700,</t>
         </is>
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "amount": 1900</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="B409" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C409" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B409" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "amount": 2700,</t>
+        </is>
+      </c>
+      <c r="C409" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="B410" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C410" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B410" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C410" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.4"</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6"</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="B412" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C412" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B412" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ],</t>
+        </is>
+      </c>
+      <c r="C412" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="B413" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">            "triggerItems": [</t>
+        </is>
+      </c>
+      <c r="C413" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "triggerItems": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+      <c r="C414" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+      <c r="C415" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {},</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">              {</t>
         </is>
       </c>
-      <c r="C413" s="2" t="inlineStr">
+      <c r="C416" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="B414" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "pluCode": "0100001",</t>
-        </is>
-      </c>
-      <c r="C414" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="B415" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "depCode": "1",</t>
-        </is>
-      </c>
-      <c r="C415" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="B416" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "itemSeq": "1.5",</t>
-        </is>
-      </c>
-      <c r="C416" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="B417" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": 1,</t>
+          <t xml:space="preserve">                "amount": 2700</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": "Nodata",</t>
+          <t xml:space="preserve">                "amount": 1900</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="B418" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "price": 2700,</t>
-        </is>
-      </c>
-      <c r="C418" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+      <c r="B418" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C418" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="419">
-      <c r="B419" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": 2700</t>
-        </is>
-      </c>
-      <c r="C419" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": "Nodata"</t>
+      <c r="B419" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
+        </is>
+      </c>
+      <c r="C419" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="420">
-      <c r="B420" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C420" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B420" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "itemSeq": "1.4"</t>
+        </is>
+      </c>
+      <c r="C420" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "itemSeq": "1.6"</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="B421" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C421" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "0100001",</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "pluCode": "Nodata",</t>
+          <t xml:space="preserve">              "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "1",</t>
+          <t xml:space="preserve">                "pluCode": "0100001",</t>
         </is>
       </c>
       <c r="C423" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "depCode": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+          <t xml:space="preserve">                "depCode": "1",</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "itemSeq": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": 1,</t>
+          <t xml:space="preserve">                "itemSeq": "1.5",</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "quantityType": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": 2700,</t>
+          <t xml:space="preserve">                "quantityType": 1,</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "price": "Nodata",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="B427" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">                "price": 2700,</t>
+        </is>
+      </c>
+      <c r="C427" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">                "amount": 2700</t>
         </is>
       </c>
-      <c r="C427" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "amount": "Nodata"</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="B428" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
-        </is>
-      </c>
-      <c r="C428" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              }</t>
+      <c r="C428" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="429">
-      <c r="B429" s="2" t="inlineStr">
+      <c r="B429" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              },</t>
+        </is>
+      </c>
+      <c r="C429" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              "Nodata"</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              {</t>
+        </is>
+      </c>
+      <c r="C430" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">            ]</t>
         </is>
       </c>
-      <c r="C429" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="B430" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          }</t>
-        </is>
-      </c>
-      <c r="C430" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          }</t>
-        </is>
-      </c>
     </row>
     <row r="431">
-      <c r="B431" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ]</t>
-        </is>
-      </c>
-      <c r="C431" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ]</t>
+      <c r="B431" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "pluCode": "0100001",</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="432">
-      <c r="B432" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      }</t>
-        </is>
-      </c>
-      <c r="C432" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      }</t>
+      <c r="B432" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "depCode": "1",</t>
+        </is>
+      </c>
+      <c r="C432" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="433">
-      <c r="B433" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
-        </is>
-      </c>
-      <c r="C433" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
+      <c r="B433" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "itemSeq": "1.6",</t>
+        </is>
+      </c>
+      <c r="C433" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="B434" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
-        </is>
-      </c>
-      <c r="C434" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ],</t>
+      <c r="B434" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "quantityType": 1,</t>
+        </is>
+      </c>
+      <c r="C434" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "itemSpendPromotion": 0,</t>
+          <t xml:space="preserve">                "price": 2700,</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "itemSpendPromotion": 1,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="B436" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "promoNumber": "11640"</t>
-        </is>
-      </c>
-      <c r="C436" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "promoNumber": "11640"</t>
+      <c r="B436" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "amount": 2700</t>
+        </is>
+      </c>
+      <c r="C436" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="B437" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">              }</t>
         </is>
       </c>
       <c r="C437" s="2" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">          }</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="B438" s="2" t="inlineStr"/>
-      <c r="C438" s="2" t="inlineStr"/>
+      <c r="B438" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ]</t>
+        </is>
+      </c>
+      <c r="C438" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="B439" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11643</t>
+          <t xml:space="preserve">          }</t>
         </is>
       </c>
       <c r="C439" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11643</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="440">
-      <c r="B440" s="2" t="inlineStr">
-        <is>
-          <t>{</t>
-        </is>
-      </c>
-      <c r="C440" s="2" t="inlineStr">
-        <is>
-          <t>{</t>
+      <c r="B440" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+      <c r="C440" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="B443" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
-        </is>
-      </c>
-      <c r="C443" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+      <c r="B443" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="B444" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C444" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B444" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "itemSpendPromotion": 0,</t>
+        </is>
+      </c>
+      <c r="C444" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "itemSpendPromotion": 1,</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="B445" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t xml:space="preserve">  "promoNumber": "11640"</t>
         </is>
       </c>
       <c r="C445" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t xml:space="preserve">  "promoNumber": "11640"</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C446" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "redemption": [</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="447">
-      <c r="B447" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
-      <c r="C447" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          {</t>
-        </is>
-      </c>
+      <c r="B447" s="2" t="inlineStr"/>
+      <c r="C447" s="2" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="B448" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>promoNumber: 11643</t>
         </is>
       </c>
       <c r="C448" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>promoNumber: 11643</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="B449" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C449" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="B450" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="451">
-      <c r="B451" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C451" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B451" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C451" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="B452" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
       <c r="C452" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="B453" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C453" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="B454" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C454" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="B455" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C455" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="B456" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C456" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="B457" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C457" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
+      <c r="B457" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "rewardsItems": [</t>
+        </is>
+      </c>
+      <c r="C457" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="B458" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C458" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="B459" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
-        </is>
-      </c>
-      <c r="C459" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C459" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="B460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C462" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="B463" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C463" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ],</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C464" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ],</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="B465" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11643"</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C465" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11643"</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="466">
-      <c r="B466" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-      <c r="C466" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
+      <c r="B466" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C466" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="467">
-      <c r="B467" s="2" t="inlineStr"/>
-      <c r="C467" s="2" t="inlineStr"/>
+      <c r="B467" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              }</t>
+        </is>
+      </c>
+      <c r="C467" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              }</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="B468" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11662</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C468" s="2" t="inlineStr">
         <is>
-          <t>promoNumber: 11662</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="B469" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">          }</t>
         </is>
       </c>
       <c r="C469" s="2" t="inlineStr">
         <is>
-          <t>{</t>
+          <t xml:space="preserve">          }</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="B470" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": 1,</t>
-        </is>
-      </c>
-      <c r="C470" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
+      <c r="B470" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
+        </is>
+      </c>
+      <c r="C470" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="B471" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": false,</t>
-        </is>
-      </c>
-      <c r="C471" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "memberCardRequired": true,</t>
+      <c r="B471" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      }</t>
+        </is>
+      </c>
+      <c r="C471" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="B472" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
-        </is>
-      </c>
-      <c r="C472" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
+      <c r="B472" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C472" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="B473" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
       <c r="C473" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "redemptionSummary": [</t>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="B474" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">  "promoNumber": "11643"</t>
         </is>
       </c>
       <c r="C474" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">  "promoNumber": "11643"</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="B475" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>}</t>
         </is>
       </c>
       <c r="C475" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redemptionLevel": {</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="B476" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        "redemption": [</t>
-        </is>
-      </c>
-      <c r="C476" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        "redemption": [</t>
-        </is>
-      </c>
+      <c r="B476" s="2" t="inlineStr"/>
+      <c r="C476" s="2" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="B477" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>promoNumber: 11662</t>
         </is>
       </c>
       <c r="C477" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          {</t>
+          <t>promoNumber: 11662</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="B478" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>{</t>
         </is>
       </c>
       <c r="C478" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "rewardsItems": [</t>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="B479" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
-        </is>
-      </c>
-      <c r="C479" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              {</t>
+      <c r="B479" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": 1,</t>
+        </is>
+      </c>
+      <c r="C479" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "qualifyMA": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="B480" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
+          <t xml:space="preserve">  "memberCardRequired": false,</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
+          <t xml:space="preserve">  "memberCardRequired": true,</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="B481" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
-        </is>
-      </c>
-      <c r="C481" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              },</t>
+      <c r="B481" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": false,</t>
+        </is>
+      </c>
+      <c r="C481" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "containOrderValueBucket": true,</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="B482" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
       <c r="C482" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">  "redemptionSummary": [</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="B483" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C483" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="B484" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
       <c r="C484" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">      "redemptionLevel": {</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="B485" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
       <c r="C485" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {},</t>
+          <t xml:space="preserve">        "redemption": [</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="B486" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
       <c r="C486" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              {</t>
+          <t xml:space="preserve">          {</t>
         </is>
       </c>
     </row>
     <row r="487">
-      <c r="B487" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 1</t>
-        </is>
-      </c>
-      <c r="C487" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "rewardAmount": 0</t>
+      <c r="B487" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "rewardsItems": [</t>
+        </is>
+      </c>
+      <c r="C487" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            "rewardsItems": [</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              }</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="489">
-      <c r="B489" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
-        </is>
-      </c>
-      <c r="C489" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ]</t>
+      <c r="B489" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
+        </is>
+      </c>
+      <c r="C489" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="B490" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
       <c r="C490" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">          }</t>
+          <t xml:space="preserve">              },</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="B491" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C491" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ]</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C492" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="B493" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C493" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ],</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
       <c r="C494" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ],</t>
+          <t xml:space="preserve">              {},</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="B495" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11662"</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
       <c r="C495" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "promoNumber": "11662"</t>
+          <t xml:space="preserve">              {</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="B496" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-      <c r="C496" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
+      <c r="B496" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 1</t>
+        </is>
+      </c>
+      <c r="C496" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "rewardAmount": 0</t>
         </is>
       </c>
     </row>
     <row r="497">
-      <c r="B497" s="2" t="inlineStr"/>
-      <c r="C497" s="2" t="inlineStr"/>
+      <c r="B497" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              }</t>
+        </is>
+      </c>
+      <c r="C497" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              }</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t>"eligibleAccumulate": {}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
       <c r="C498" s="2" t="inlineStr">
         <is>
-          <t>"eligibleAccumulate": {}</t>
+          <t xml:space="preserve">            ]</t>
         </is>
       </c>
     </row>
     <row r="499">
-      <c r="B499" s="2" t="inlineStr"/>
-      <c r="C499" s="2" t="inlineStr"/>
+      <c r="B499" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
+      <c r="C499" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          }</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="B500" s="2" t="inlineStr">
         <is>
-          <t>"member": {</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
       <c r="C500" s="2" t="inlineStr">
         <is>
-          <t>"member": {</t>
+          <t xml:space="preserve">        ]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="B501" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "rewards": [</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
       <c r="C501" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  "rewards": [</t>
+          <t xml:space="preserve">      }</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="B502" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
       <c r="C502" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    {</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="503">
-      <c r="B503" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "31020569",</t>
-        </is>
-      </c>
-      <c r="C503" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "808",</t>
+      <c r="B503" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
+        </is>
+      </c>
+      <c r="C503" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ],</t>
         </is>
       </c>
     </row>
     <row r="504">
-      <c r="B504" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 43,</t>
-        </is>
-      </c>
-      <c r="C504" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 56979,</t>
+      <c r="B504" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11662"</t>
+        </is>
+      </c>
+      <c r="C504" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "promoNumber": "11662"</t>
         </is>
       </c>
     </row>
     <row r="505">
-      <c r="B505" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 1,</t>
-        </is>
-      </c>
-      <c r="C505" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 0,</t>
+      <c r="B505" s="2" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C505" s="2" t="inlineStr">
+        <is>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="506">
-      <c r="B506" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 44,</t>
-        </is>
-      </c>
-      <c r="C506" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 56979,</t>
-        </is>
-      </c>
+      <c r="B506" s="2" t="inlineStr"/>
+      <c r="C506" s="2" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
+          <t>"eligibleAccumulate": [</t>
         </is>
       </c>
       <c r="C507" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2027-12-31"</t>
+          <t>"eligibleAccumulate": {}</t>
         </is>
       </c>
     </row>
     <row r="508">
-      <c r="B508" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
-      <c r="C508" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
+      <c r="B508" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+      <c r="C508" s="2" t="inlineStr"/>
     </row>
     <row r="509">
-      <c r="B509" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C509" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B509" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "accountId": "9100877",</t>
+        </is>
+      </c>
+      <c r="C509" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="B510" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31020631",</t>
+          <t xml:space="preserve">    "proNumber": "2850",</t>
         </is>
       </c>
       <c r="C510" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "9103132",</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 32,</t>
+          <t xml:space="preserve">    "eligibleQty": 1,</t>
         </is>
       </c>
       <c r="C511" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 27,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="B512" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 33,</t>
+          <t xml:space="preserve">    "productCode": "0100001"</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 28,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": false,</t>
+          <t xml:space="preserve">  }</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="B514" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2025-12-23"</t>
+          <t>]</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="515">
-      <c r="B515" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
-      <c r="C515" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
+      <c r="B515" s="2" t="inlineStr"/>
+      <c r="C515" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="B516" s="2" t="inlineStr">
         <is>
+          <t>"member": {</t>
+        </is>
+      </c>
+      <c r="C516" s="2" t="inlineStr">
+        <is>
+          <t>"member": {</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "rewards": [</t>
+        </is>
+      </c>
+      <c r="C517" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  "rewards": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">    {</t>
         </is>
       </c>
-      <c r="C516" s="2" t="inlineStr">
+      <c r="C518" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="B517" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "31021126",</t>
-        </is>
-      </c>
-      <c r="C517" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "9103475",</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="B518" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 42,</t>
-        </is>
-      </c>
-      <c r="C518" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 15,</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 43</t>
+          <t xml:space="preserve">      "id": "31020569",</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 16</t>
+          <t xml:space="preserve">      "id": "808",</t>
         </is>
       </c>
     </row>
     <row r="520">
-      <c r="B520" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
-      <c r="C520" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
+      <c r="B520" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 43,</t>
+        </is>
+      </c>
+      <c r="C520" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 56979,</t>
         </is>
       </c>
     </row>
     <row r="521">
-      <c r="B521" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C521" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B521" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "earnValue": 1,</t>
+        </is>
+      </c>
+      <c r="C521" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "earnValue": 0,</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="B522" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "808",</t>
+          <t xml:space="preserve">      "endingBalance": 44,</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "9103901",</t>
+          <t xml:space="preserve">      "endingBalance": 56979,</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 56979,</t>
+          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 91,</t>
+          <t xml:space="preserve">      "expiredate": "2027-12-31"</t>
         </is>
       </c>
     </row>
     <row r="524">
-      <c r="B524" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 1000,</t>
-        </is>
-      </c>
-      <c r="C524" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 1,</t>
+      <c r="B524" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C524" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="525">
-      <c r="B525" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 57979,</t>
-        </is>
-      </c>
-      <c r="C525" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 92,</t>
+      <c r="B525" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+      <c r="C525" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2027-12-31"</t>
+          <t xml:space="preserve">      "id": "31020631",</t>
         </is>
       </c>
       <c r="C526" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
+          <t xml:space="preserve">      "id": "9103132",</t>
         </is>
       </c>
     </row>
     <row r="527">
-      <c r="B527" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
-      <c r="C527" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
+      <c r="B527" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 32,</t>
+        </is>
+      </c>
+      <c r="C527" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 27,</t>
         </is>
       </c>
     </row>
     <row r="528">
-      <c r="B528" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C528" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B528" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "endingBalance": 33,</t>
+        </is>
+      </c>
+      <c r="C528" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "endingBalance": 28,</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "9103132",</t>
+          <t xml:space="preserve">      "isShownReceiptTail": false,</t>
         </is>
       </c>
       <c r="C529" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31020568",</t>
+          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="B530" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 27,</t>
+          <t xml:space="preserve">      "expiredate": "2025-12-23"</t>
         </is>
       </c>
       <c r="C530" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 3,</t>
+          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
         </is>
       </c>
     </row>
     <row r="531">
-      <c r="B531" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 28</t>
-        </is>
-      </c>
-      <c r="C531" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 4</t>
+      <c r="B531" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C531" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C532" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="533">
-      <c r="B533" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C533" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B533" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "31021126",</t>
+        </is>
+      </c>
+      <c r="C533" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "9103475",</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="B534" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "9103475",</t>
+          <t xml:space="preserve">      "total": 42,</t>
         </is>
       </c>
       <c r="C534" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31020569",</t>
+          <t xml:space="preserve">      "total": 15,</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 15,</t>
+          <t xml:space="preserve">      "endingBalance": 43</t>
         </is>
       </c>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 43,</t>
+          <t xml:space="preserve">      "endingBalance": 16</t>
         </is>
       </c>
     </row>
     <row r="536">
-      <c r="B536" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 16</t>
-        </is>
-      </c>
-      <c r="C536" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 44</t>
+      <c r="B536" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C536" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="B537" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C537" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="538">
-      <c r="B538" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C538" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B538" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "808",</t>
+        </is>
+      </c>
+      <c r="C538" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "9103901",</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "9103901",</t>
+          <t xml:space="preserve">      "total": 56979,</t>
         </is>
       </c>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31021232",</t>
+          <t xml:space="preserve">      "total": 91,</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="B540" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 91,</t>
+          <t xml:space="preserve">      "earnValue": 1000,</t>
         </is>
       </c>
       <c r="C540" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 60,</t>
+          <t xml:space="preserve">      "earnValue": 1,</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": 1,</t>
+          <t xml:space="preserve">      "endingBalance": 57979,</t>
         </is>
       </c>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": 0,</t>
+          <t xml:space="preserve">      "endingBalance": 92,</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="B542" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 92,</t>
+          <t xml:space="preserve">      "expiredate": "2027-12-31"</t>
         </is>
       </c>
       <c r="C542" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 60,</t>
+          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
         </is>
       </c>
     </row>
     <row r="543">
-      <c r="B543" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
-        </is>
-      </c>
-      <c r="C543" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "expiredate": "2025-12-31"</t>
+      <c r="B543" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C543" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
       <c r="C544" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    },</t>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="545">
-      <c r="B545" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C545" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B545" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "9103132",</t>
+        </is>
+      </c>
+      <c r="C545" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "31020568",</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="B546" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31021232",</t>
+          <t xml:space="preserve">      "total": 27,</t>
         </is>
       </c>
       <c r="C546" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31021299",</t>
+          <t xml:space="preserve">      "total": 3,</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="B547" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 60,</t>
+          <t xml:space="preserve">      "endingBalance": 28</t>
         </is>
       </c>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 64,</t>
+          <t xml:space="preserve">      "endingBalance": 4</t>
         </is>
       </c>
     </row>
     <row r="548">
-      <c r="B548" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 60,</t>
-        </is>
-      </c>
-      <c r="C548" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "earnValue": 2,</t>
+      <c r="B548" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C548" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="549">
-      <c r="B549" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 120</t>
-        </is>
-      </c>
-      <c r="C549" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 66</t>
+      <c r="B549" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+      <c r="C549" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="550">
-      <c r="B550" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
-        </is>
-      </c>
-      <c r="C550" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    },</t>
+      <c r="B550" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "9103475",</t>
+        </is>
+      </c>
+      <c r="C550" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "31020569",</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="B551" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
-        </is>
-      </c>
-      <c r="C551" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    {</t>
+      <c r="B551" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 15,</t>
+        </is>
+      </c>
+      <c r="C551" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 43,</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="B552" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2026-12-31",</t>
+          <t xml:space="preserve">      "endingBalance": 16</t>
         </is>
       </c>
       <c r="C552" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "Nodata",</t>
+          <t xml:space="preserve">      "endingBalance": 44</t>
         </is>
       </c>
     </row>
     <row r="553">
-      <c r="B553" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "9100877",</t>
-        </is>
-      </c>
-      <c r="C553" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "id": "9103872",</t>
+      <c r="B553" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C553" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="554">
-      <c r="B554" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 11,</t>
-        </is>
-      </c>
-      <c r="C554" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "total": 0,</t>
+      <c r="B554" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+      <c r="C554" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="B555" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": 0,</t>
+          <t xml:space="preserve">      "id": "9103901",</t>
         </is>
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": 2,</t>
+          <t xml:space="preserve">      "id": "31021232",</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="B556" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redeemValue": 10,</t>
+          <t xml:space="preserve">      "total": 91,</t>
         </is>
       </c>
       <c r="C556" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "redeemValue": 0,</t>
+          <t xml:space="preserve">      "total": 60,</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="B557" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 1,</t>
+          <t xml:space="preserve">      "earnValue": 1,</t>
         </is>
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "endingBalance": 0,</t>
+          <t xml:space="preserve">      "earnValue": 0,</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="B558" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
+          <t xml:space="preserve">      "endingBalance": 92,</t>
         </is>
       </c>
       <c r="C558" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": false,</t>
+          <t xml:space="preserve">      "endingBalance": 60,</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="B559" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isRewardPloSystem": true</t>
+          <t xml:space="preserve">      "expiredate": "2029-12-31"</t>
         </is>
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isRewardPloSystem": false</t>
+          <t xml:space="preserve">      "expiredate": "2025-12-31"</t>
         </is>
       </c>
     </row>
@@ -9198,260 +9159,500 @@
     <row r="562">
       <c r="B562" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "31020013",</t>
+          <t xml:space="preserve">      "id": "31021232",</t>
         </is>
       </c>
       <c r="C562" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "id": "Nodata",</t>
+          <t xml:space="preserve">      "id": "31021299",</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "2026-12-31",</t>
+          <t xml:space="preserve">      "total": 60,</t>
         </is>
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "expiredate": "Nodata",</t>
+          <t xml:space="preserve">      "total": 64,</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="B564" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": 1,</t>
+          <t xml:space="preserve">      "earnValue": 60,</t>
         </is>
       </c>
       <c r="C564" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "total": "Nodata",</t>
+          <t xml:space="preserve">      "earnValue": 2,</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": 1,</t>
+          <t xml:space="preserve">      "endingBalance": 120</t>
         </is>
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "earnValue": "Nodata",</t>
+          <t xml:space="preserve">      "endingBalance": 66</t>
         </is>
       </c>
     </row>
     <row r="566">
-      <c r="B566" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "redeemValue": 0,</t>
-        </is>
-      </c>
-      <c r="C566" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "redeemValue": "Nodata",</t>
+      <c r="B566" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C566" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="567">
-      <c r="B567" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": 2,</t>
-        </is>
-      </c>
-      <c r="C567" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "endingBalance": "Nodata",</t>
+      <c r="B567" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+      <c r="C567" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="B568" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
+          <t xml:space="preserve">      "expiredate": "2026-12-31",</t>
         </is>
       </c>
       <c r="C568" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      "isShownReceiptTail": "Nodata",</t>
+          <t xml:space="preserve">      "expiredate": "Nodata",</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="B569" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">      "id": "9100877",</t>
+        </is>
+      </c>
+      <c r="C569" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "9103872",</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 11,</t>
+        </is>
+      </c>
+      <c r="C570" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "total": 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "earnValue": 0,</t>
+        </is>
+      </c>
+      <c r="C571" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "earnValue": 2,</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "redeemValue": 10,</t>
+        </is>
+      </c>
+      <c r="C572" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "redeemValue": 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "endingBalance": 1,</t>
+        </is>
+      </c>
+      <c r="C573" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "endingBalance": 0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
+        </is>
+      </c>
+      <c r="C574" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "isShownReceiptTail": false,</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">      "isRewardPloSystem": true</t>
         </is>
       </c>
-      <c r="C569" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      "isRewardPloSystem": "Nodata"</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="B570" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
-        </is>
-      </c>
-      <c r="C570" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    }</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="B571" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ]</t>
-        </is>
-      </c>
-      <c r="C571" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ]</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="B572" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-      <c r="C572" s="2" t="inlineStr">
-        <is>
-          <t>}</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="B573" s="2" t="inlineStr"/>
-      <c r="C573" s="2" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="2" t="inlineStr">
-        <is>
-          <t>"qualifySpendList": [</t>
-        </is>
-      </c>
-      <c r="C574" s="2" t="inlineStr">
-        <is>
-          <t>"qualifySpendList": [</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="B575" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {</t>
-        </is>
-      </c>
-      <c r="C575" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {</t>
+      <c r="C575" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "isRewardPloSystem": false</t>
         </is>
       </c>
     </row>
     <row r="576">
-      <c r="B576" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    "code": "amb"</t>
-        </is>
-      </c>
-      <c r="C576" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    "code": "stamp"</t>
+      <c r="B576" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
+        </is>
+      </c>
+      <c r="C576" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    },</t>
         </is>
       </c>
     </row>
     <row r="577">
-      <c r="B577" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  },</t>
-        </is>
-      </c>
-      <c r="C577" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  },</t>
+      <c r="B577" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    {</t>
+        </is>
+      </c>
+      <c r="C577" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Nodata"</t>
         </is>
       </c>
     </row>
     <row r="578">
-      <c r="B578" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {},</t>
-        </is>
-      </c>
-      <c r="C578" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {},</t>
+      <c r="B578" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "id": "31020013",</t>
+        </is>
+      </c>
+      <c r="C578" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="579">
-      <c r="B579" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {</t>
-        </is>
-      </c>
-      <c r="C579" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  {</t>
+      <c r="B579" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "expiredate": "2026-12-31",</t>
+        </is>
+      </c>
+      <c r="C579" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="B580" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">      "total": 1,</t>
+        </is>
+      </c>
+      <c r="C580" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "earnValue": 1,</t>
+        </is>
+      </c>
+      <c r="C581" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "redeemValue": 0,</t>
+        </is>
+      </c>
+      <c r="C582" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "endingBalance": 2,</t>
+        </is>
+      </c>
+      <c r="C583" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "isShownReceiptTail": true,</t>
+        </is>
+      </c>
+      <c r="C584" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      "isRewardPloSystem": true</t>
+        </is>
+      </c>
+      <c r="C585" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }</t>
+        </is>
+      </c>
+      <c r="C586" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ]</t>
+        </is>
+      </c>
+      <c r="C587" s="3" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" s="3" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C588" s="2" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="2" t="inlineStr"/>
+      <c r="C589" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" s="2" t="inlineStr">
+        <is>
+          <t>"qualifySpendList": [</t>
+        </is>
+      </c>
+      <c r="C590" s="2" t="inlineStr">
+        <is>
+          <t>"qualifySpendList": [</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+      <c r="C591" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "code": "amb"</t>
+        </is>
+      </c>
+      <c r="C592" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">    "code": "stamp"</t>
         </is>
       </c>
-      <c r="C580" s="3" t="inlineStr">
+    </row>
+    <row r="593">
+      <c r="B593" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  },</t>
+        </is>
+      </c>
+      <c r="C593" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  },</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {},</t>
+        </is>
+      </c>
+      <c r="C594" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {},</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+      <c r="C595" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "code": "stamp"</t>
+        </is>
+      </c>
+      <c r="C596" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    "code": "amb"</t>
         </is>
       </c>
     </row>
-    <row r="581">
-      <c r="B581" s="2" t="inlineStr">
+    <row r="597">
+      <c r="B597" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">  }</t>
         </is>
       </c>
-      <c r="C581" s="2" t="inlineStr">
+      <c r="C597" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">  }</t>
         </is>
       </c>
     </row>
-    <row r="582">
-      <c r="B582" s="2" t="inlineStr">
+    <row r="598">
+      <c r="B598" s="2" t="inlineStr">
         <is>
           <t>]</t>
         </is>
       </c>
-      <c r="C582" s="2" t="inlineStr">
+      <c r="C598" s="2" t="inlineStr">
         <is>
           <t>]</t>
         </is>
       </c>
     </row>
-    <row r="583">
-      <c r="B583" s="2" t="inlineStr"/>
-      <c r="C583" s="2" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="2" t="inlineStr">
+    <row r="599">
+      <c r="B599" s="2" t="inlineStr"/>
+      <c r="C599" s="2" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="3" t="inlineStr">
+        <is>
+          <t>"stamp": [</t>
+        </is>
+      </c>
+      <c r="C600" s="3" t="inlineStr">
         <is>
           <t>"stamp": {}</t>
         </is>
       </c>
-      <c r="C584" s="2" t="inlineStr">
-        <is>
-          <t>"stamp": {}</t>
+    </row>
+    <row r="601">
+      <c r="B601" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  {</t>
+        </is>
+      </c>
+      <c r="C601" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "id": "3700058"</t>
+        </is>
+      </c>
+      <c r="C602" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  }</t>
+        </is>
+      </c>
+      <c r="C603" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" s="3" t="inlineStr">
+        <is>
+          <t>]</t>
+        </is>
+      </c>
+      <c r="C604" s="3" t="inlineStr">
+        <is>
+          <t>Nodata</t>
         </is>
       </c>
     </row>
